--- a/SplitSubscr Notifs Template.xlsx
+++ b/SplitSubscr Notifs Template.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="TEMPLATE" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="TEMPLATE" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Jan</t>
   </si>
@@ -128,6 +129,9 @@
   </si>
   <si>
     <t>Extra tip: protect the ranges of the gray cells</t>
+  </si>
+  <si>
+    <t>Make sure that the name of sheet is the current yr</t>
   </si>
 </sst>
 </file>
@@ -347,9 +351,6 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -402,6 +403,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,6 +437,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -740,7 +748,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
@@ -762,7 +770,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="1"/>
@@ -806,17 +814,17 @@
         <v>20</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="6">
         <f>COUNTIF(B7:M7, "Paid")*B12 + countif(B8:M8, A7)*2</f>
         <v>0</v>
@@ -824,24 +832,24 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6">
@@ -894,102 +902,520 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>5.0</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="H14" s="22" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="H14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="H15" s="25" t="s">
+      <c r="F15" s="23"/>
+      <c r="H15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="26"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="H16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="26"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17">
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="32"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="25">
+      <c r="B25" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:M7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:M7">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Not Paid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="B2:M7">
+      <formula1>"Paid,Not Paid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items" sqref="B8:M8">
+      <formula1>"Owner,User1,User2,User3,User4,User5"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col customWidth="1" min="2" max="13" width="9.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="6">
+        <f>COUNTIF(B2:M2, "Paid")*B12 + countif(B8:M8, A2)*2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="6">
+        <f>COUNTIF(B3:M3, "Paid")*B12 + countif(B8:M8, A3)*2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="6">
+        <f>COUNTIF(B4:M4, "Paid")*B12 + countif(B8:M8, A4)*2</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="6">
+        <f>COUNTIF(B5:M5, "Paid")*B12+ countif(B8:M8, A5)*2</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="6">
+        <f>COUNTIF(B6:M6, "Paid")*B12 + countif(B8:M8, A6)*2</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="6">
+        <f>COUNTIF(B7:M7, "Paid")*B12 + countif(B8:M8, A7)*2</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
+        <f>COUNTIF(B2:B7,"Paid")*B12 + countif(B8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <f>COUNTIF(C2:C7,"Paid")*B12 + countif(C8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <f>COUNTIF(D2:D7,"Paid")*B12 + countif(D8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f>COUNTIF(E2:E7,"Paid")*B12 + countif(E8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f>COUNTIF(F2:F7,"Paid")*B12 + countif(F8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f>COUNTIF(G2:G7,"Paid")*B12 + countif(G8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <f>COUNTIF(H2:H7,"Paid")*B12 + countif(H8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f>COUNTIF(I2:I7,"Paid")*B12 + countif(I8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <f>COUNTIF(J2:J7,"Paid")*B12 + countif(J8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f>COUNTIF(K2:K7,"Paid")*B12 + countif(K8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <f>COUNTIF(L2:L7,"Paid")*B12 + countif(L8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <f>COUNTIF(M2:M7,"Paid")*B12 + countif(M8, "&lt;&gt;")*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="H14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="H15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="H16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17">
+      <c r="H17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:F14"/>
@@ -997,14 +1423,6 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:M7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
